--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_7_33.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_7_33.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1497503.534825515</v>
+        <v>1523282.9272551</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17290971.53779843</v>
+        <v>16612500.99216496</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>492028.9342484455</v>
+        <v>278692.0725916867</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6527904.922103886</v>
+        <v>6630532.189779861</v>
       </c>
     </row>
     <row r="11">
@@ -662,7 +662,7 @@
         <v>33.76104808841092</v>
       </c>
       <c r="D2" t="n">
-        <v>31.5506869772999</v>
+        <v>60.78008587919193</v>
       </c>
       <c r="E2" t="n">
         <v>29.43699739328775</v>
@@ -677,7 +677,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,22 +710,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X2" t="n">
-        <v>267.7357237463023</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="3">
@@ -814,28 +814,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -865,25 +865,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>145.5015152065393</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>35.0560030479866</v>
       </c>
     </row>
     <row r="5">
@@ -896,25 +896,25 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
-        <v>320.0331481255878</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D5" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F5" t="n">
         <v>23.58875529488432</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -956,13 +956,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0.8069000430770075</v>
+        <v>2.911382118450196</v>
       </c>
       <c r="X5" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>404.2032624633431</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="6">
@@ -1063,16 +1063,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1102,19 +1102,19 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>66.12297015960925</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
-        <v>172.0647531850085</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
         <v>242.9378371199217</v>
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
-        <v>424.2958575201043</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D8" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>65.50159749956612</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F8" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,22 +1181,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>32.36127543482709</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0.8069000430770075</v>
       </c>
       <c r="X8" t="n">
-        <v>414.9510387864824</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y8" t="n">
         <v>4.203262463343094</v>
@@ -1291,7 +1291,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C10" t="n">
-        <v>170.8360944016073</v>
+        <v>10.0402736571996</v>
       </c>
       <c r="D10" t="n">
         <v>164.2192128704925</v>
@@ -1300,16 +1300,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,22 +1336,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
-        <v>95.29602472536796</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
         <v>242.9378371199217</v>
@@ -1385,7 +1385,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
-        <v>18.2277202765938</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
         <v>0.4126214791313976</v>
@@ -1543,10 +1543,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,16 +1576,16 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225076</v>
       </c>
       <c r="T13" t="n">
-        <v>161.6379250432776</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U13" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W13" t="n">
         <v>269.3061403695714</v>
@@ -1604,10 +1604,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>422.0365747800587</v>
+        <v>422.0365747800599</v>
       </c>
       <c r="C14" t="n">
-        <v>433.7610480884109</v>
+        <v>433.761048088411</v>
       </c>
       <c r="D14" t="n">
         <v>431.5506869772999</v>
@@ -1655,13 +1655,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
-        <v>71.43430199953282</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
         <v>358.9907805655117</v>
@@ -1777,10 +1777,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>163.9353622244306</v>
+        <v>3.139541480020337</v>
       </c>
       <c r="H16" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
         <v>157.6489550149833</v>
@@ -1828,10 +1828,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X16" t="n">
-        <v>189.9879808696998</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="17">
@@ -1844,7 +1844,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C17" t="n">
-        <v>433.7610480884109</v>
+        <v>433.7610480884127</v>
       </c>
       <c r="D17" t="n">
         <v>431.5506869772999</v>
@@ -1853,7 +1853,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F17" t="n">
-        <v>245.193625680101</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G17" t="n">
         <v>397.3838530629687</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>82.81535507800136</v>
+        <v>82.81535507800142</v>
       </c>
       <c r="T17" t="n">
         <v>217.8665548556918</v>
@@ -2014,7 +2014,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>24.34318456170431</v>
+        <v>24.34318456170439</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2081,7 +2081,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C20" t="n">
-        <v>433.76104808841</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D20" t="n">
         <v>431.5506869772999</v>
@@ -2090,10 +2090,10 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F20" t="n">
-        <v>423.5887552948843</v>
+        <v>423.5887552948854</v>
       </c>
       <c r="G20" t="n">
-        <v>397.3838530629687</v>
+        <v>397.3838530629688</v>
       </c>
       <c r="H20" t="n">
         <v>286.2388530112159</v>
@@ -2248,13 +2248,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>54.49360828358978</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
@@ -2318,7 +2318,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C23" t="n">
-        <v>433.7610480884109</v>
+        <v>433.7610480884127</v>
       </c>
       <c r="D23" t="n">
         <v>431.5506869772999</v>
@@ -2488,7 +2488,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
-        <v>24.34318456170516</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
@@ -2725,10 +2725,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
-        <v>163.9353622244306</v>
+        <v>160.788496495006</v>
       </c>
       <c r="H28" t="n">
-        <v>18.05677735225723</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2965,10 +2965,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,10 +2998,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T31" t="n">
-        <v>35.20092700998637</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U31" t="n">
         <v>275.6486707394257</v>
@@ -3086,7 +3086,7 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V32" t="n">
-        <v>358.9907805655129</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W32" t="n">
         <v>400.806900043077</v>
@@ -3235,7 +3235,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>18.05677735225697</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3427,7 +3427,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D37" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>168.0604237117701</v>
@@ -3439,7 +3439,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>138.5031525665292</v>
+        <v>24.62703520776627</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3472,7 +3472,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T37" t="n">
         <v>243.4206519573293</v>
@@ -3490,7 +3490,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y37" t="n">
-        <v>104.6990987647614</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="38">
@@ -3664,22 +3664,22 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E40" t="n">
-        <v>168.0604237117701</v>
+        <v>28.46824604904392</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>61.06386613909882</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3752,7 +3752,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
-        <v>397.3838530629687</v>
+        <v>397.383853062969</v>
       </c>
       <c r="H41" t="n">
         <v>286.2388530112159</v>
@@ -3791,7 +3791,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T41" t="n">
-        <v>128.2505517358521</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U41" t="n">
         <v>256.6300796561533</v>
@@ -3904,7 +3904,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E43" t="n">
-        <v>86.27769679771748</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F43" t="n">
         <v>174.9399834978613</v>
@@ -3913,10 +3913,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,7 +3946,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T43" t="n">
         <v>243.4206519573293</v>
@@ -3955,7 +3955,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W43" t="n">
         <v>269.3061403695714</v>
@@ -3989,10 +3989,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>129.3727203283451</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H44" t="n">
-        <v>286.2388530112159</v>
+        <v>286.2388530112162</v>
       </c>
       <c r="I44" t="n">
         <v>0.4126214791313976</v>
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>45.7659466077111</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>170.8360944016073</v>
@@ -4141,7 +4141,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E46" t="n">
-        <v>168.0604237117701</v>
+        <v>109.391685766088</v>
       </c>
       <c r="F46" t="n">
         <v>174.9399834978613</v>
@@ -4150,7 +4150,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>87.77334973307141</v>
@@ -4198,7 +4198,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y46" t="n">
         <v>225.1454739790328</v>
@@ -4304,52 +4304,52 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>153.4764845146214</v>
+        <v>183.4179192429279</v>
       </c>
       <c r="C2" t="n">
-        <v>119.3744157384487</v>
+        <v>149.3158504667552</v>
       </c>
       <c r="D2" t="n">
-        <v>87.50503495329731</v>
+        <v>87.92182432615731</v>
       </c>
       <c r="E2" t="n">
-        <v>57.77069415199655</v>
+        <v>58.18748352485655</v>
       </c>
       <c r="F2" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="G2" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="H2" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="I2" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J2" t="n">
-        <v>33.94366860160834</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="K2" t="n">
-        <v>453.9965675465116</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="L2" t="n">
-        <v>857.0776321906106</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="M2" t="n">
-        <v>857.0776321906106</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="N2" t="n">
-        <v>857.0776321906106</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="O2" t="n">
-        <v>1277.130531135514</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="P2" t="n">
-        <v>1697.183430080417</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="Q2" t="n">
-        <v>1697.183430080417</v>
+        <v>1528.02936532736</v>
       </c>
       <c r="R2" t="n">
         <v>1697.183430080417</v>
@@ -4358,22 +4358,22 @@
         <v>1697.183430080417</v>
       </c>
       <c r="T2" t="n">
-        <v>1477.116202953456</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="U2" t="n">
-        <v>1217.893900270473</v>
+        <v>1437.961127397434</v>
       </c>
       <c r="V2" t="n">
-        <v>855.2769502042993</v>
+        <v>1437.961127397434</v>
       </c>
       <c r="W2" t="n">
-        <v>450.4214956153326</v>
+        <v>1033.105672808467</v>
       </c>
       <c r="X2" t="n">
-        <v>179.9813706190676</v>
+        <v>613.9632093877782</v>
       </c>
       <c r="Y2" t="n">
-        <v>175.7356509591251</v>
+        <v>205.6770856874316</v>
       </c>
     </row>
     <row r="3">
@@ -4413,16 +4413,16 @@
         <v>804.6185656731816</v>
       </c>
       <c r="L3" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="M3" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="N3" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="O3" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="P3" t="n">
         <v>1159.957753041174</v>
@@ -4462,49 +4462,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1113.00182921349</v>
+        <v>173.8458429112338</v>
       </c>
       <c r="C4" t="n">
-        <v>940.4401176967148</v>
+        <v>173.8458429112338</v>
       </c>
       <c r="D4" t="n">
-        <v>774.5621248982375</v>
+        <v>173.8458429112338</v>
       </c>
       <c r="E4" t="n">
-        <v>604.8041211489747</v>
+        <v>173.8458429112338</v>
       </c>
       <c r="F4" t="n">
-        <v>428.0970671107308</v>
+        <v>173.8458429112338</v>
       </c>
       <c r="G4" t="n">
-        <v>262.5057921365585</v>
+        <v>173.8458429112338</v>
       </c>
       <c r="H4" t="n">
-        <v>122.603617826933</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I4" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J4" t="n">
-        <v>120.5233537662982</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K4" t="n">
-        <v>395.2818083374338</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L4" t="n">
-        <v>813.4916901053949</v>
+        <v>452.1535503695694</v>
       </c>
       <c r="M4" t="n">
-        <v>813.4916901053949</v>
+        <v>872.2064493144727</v>
       </c>
       <c r="N4" t="n">
-        <v>813.4916901053949</v>
+        <v>1277.514180854636</v>
       </c>
       <c r="O4" t="n">
-        <v>1181.483761245743</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="P4" t="n">
-        <v>1528.990655216085</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Q4" t="n">
         <v>1697.183430080417</v>
@@ -4513,25 +4513,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S4" t="n">
-        <v>1697.183430080417</v>
+        <v>1537.942061378414</v>
       </c>
       <c r="T4" t="n">
-        <v>1697.183430080417</v>
+        <v>1292.062614956869</v>
       </c>
       <c r="U4" t="n">
-        <v>1697.183430080417</v>
+        <v>1013.629614209975</v>
       </c>
       <c r="V4" t="n">
-        <v>1697.183430080417</v>
+        <v>726.6741060804052</v>
       </c>
       <c r="W4" t="n">
-        <v>1550.212202599065</v>
+        <v>454.6477016666967</v>
       </c>
       <c r="X4" t="n">
-        <v>1304.820447932477</v>
+        <v>209.2559470001092</v>
       </c>
       <c r="Y4" t="n">
-        <v>1304.820447932477</v>
+        <v>173.8458429112338</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>442.6402219259112</v>
+        <v>1668.990785889678</v>
       </c>
       <c r="C5" t="n">
-        <v>119.3744157384487</v>
+        <v>1634.888717113505</v>
       </c>
       <c r="D5" t="n">
-        <v>87.50503495329731</v>
+        <v>1198.97893228795</v>
       </c>
       <c r="E5" t="n">
-        <v>57.77069415199655</v>
+        <v>765.2041874462451</v>
       </c>
       <c r="F5" t="n">
-        <v>33.94366860160834</v>
+        <v>741.3771618958569</v>
       </c>
       <c r="G5" t="n">
-        <v>33.94366860160834</v>
+        <v>339.9793305191208</v>
       </c>
       <c r="H5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.84917596233708</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947708</v>
       </c>
       <c r="J5" t="n">
-        <v>453.9965675465116</v>
+        <v>485.687074042395</v>
       </c>
       <c r="K5" t="n">
-        <v>687.9235674375537</v>
+        <v>1109.787858087174</v>
       </c>
       <c r="L5" t="n">
-        <v>687.9235674375537</v>
+        <v>1181.865694717424</v>
       </c>
       <c r="M5" t="n">
-        <v>687.9235674375537</v>
+        <v>1181.865694717424</v>
       </c>
       <c r="N5" t="n">
-        <v>687.9235674375537</v>
+        <v>1181.865694717424</v>
       </c>
       <c r="O5" t="n">
-        <v>687.9235674375537</v>
+        <v>1181.865694717424</v>
       </c>
       <c r="P5" t="n">
-        <v>1107.976466382457</v>
+        <v>1805.966478762203</v>
       </c>
       <c r="Q5" t="n">
-        <v>1528.02936532736</v>
+        <v>2352.465264720797</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473854</v>
       </c>
       <c r="S5" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473854</v>
       </c>
       <c r="T5" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473854</v>
       </c>
       <c r="U5" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473854</v>
       </c>
       <c r="V5" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473854</v>
       </c>
       <c r="W5" t="n">
-        <v>1696.368379531855</v>
+        <v>2518.678539455218</v>
       </c>
       <c r="X5" t="n">
-        <v>1277.225916111166</v>
+        <v>2099.536076034528</v>
       </c>
       <c r="Y5" t="n">
-        <v>868.939792410819</v>
+        <v>2095.290356374586</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>556.6041315807698</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295435</v>
+        <v>450.1476704174121</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>355.0573815639654</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>260.9369668909191</v>
       </c>
       <c r="F6" t="n">
-        <v>161.0644105192121</v>
+        <v>177.5531285070807</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539593</v>
+        <v>92.16803877326461</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947708</v>
       </c>
       <c r="I6" t="n">
-        <v>60.00734176206595</v>
+        <v>76.49605974993469</v>
       </c>
       <c r="J6" t="n">
-        <v>384.5656667282782</v>
+        <v>401.054384716147</v>
       </c>
       <c r="K6" t="n">
-        <v>804.6185656731816</v>
+        <v>1025.155168760926</v>
       </c>
       <c r="L6" t="n">
-        <v>1224.671464618085</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="M6" t="n">
-        <v>1224.671464618085</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="N6" t="n">
-        <v>1224.671464618085</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="O6" t="n">
-        <v>1224.671464618085</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="P6" t="n">
-        <v>1224.671464618085</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>1596.499369973946</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1713.672148068286</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1650.216710516669</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1520.038066847271</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1343.701519847239</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1144.584001909238</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>959.2612476424322</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>804.3938118813122</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>677.908032660533</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>858.7506050139928</v>
+        <v>952.7834931631146</v>
       </c>
       <c r="C7" t="n">
-        <v>686.1888934972177</v>
+        <v>780.2217816463395</v>
       </c>
       <c r="D7" t="n">
-        <v>520.3109006987404</v>
+        <v>614.3437888478622</v>
       </c>
       <c r="E7" t="n">
-        <v>350.5528969494776</v>
+        <v>444.5857850985996</v>
       </c>
       <c r="F7" t="n">
-        <v>173.8458429112338</v>
+        <v>444.5857850985996</v>
       </c>
       <c r="G7" t="n">
-        <v>173.8458429112338</v>
+        <v>278.9945101244272</v>
       </c>
       <c r="H7" t="n">
-        <v>33.94366860160834</v>
+        <v>139.0923358148017</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947708</v>
       </c>
       <c r="J7" t="n">
-        <v>120.5233537662982</v>
+        <v>137.0120717541669</v>
       </c>
       <c r="K7" t="n">
-        <v>395.2818083374338</v>
+        <v>411.7705263253025</v>
       </c>
       <c r="L7" t="n">
-        <v>437.4083829648294</v>
+        <v>829.9804080932636</v>
       </c>
       <c r="M7" t="n">
-        <v>857.4612819097326</v>
+        <v>1289.464275274177</v>
       </c>
       <c r="N7" t="n">
-        <v>1277.514180854636</v>
+        <v>1731.723078431821</v>
       </c>
       <c r="O7" t="n">
-        <v>1697.183430080417</v>
+        <v>2151.392327657602</v>
       </c>
       <c r="P7" t="n">
-        <v>1697.183430080417</v>
+        <v>2498.899221627944</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473854</v>
       </c>
       <c r="R7" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473854</v>
       </c>
       <c r="S7" t="n">
-        <v>1697.183430080417</v>
+        <v>2454.828450524754</v>
       </c>
       <c r="T7" t="n">
-        <v>1697.183430080417</v>
+        <v>2454.828450524754</v>
       </c>
       <c r="U7" t="n">
-        <v>1697.183430080417</v>
+        <v>2176.395449777859</v>
       </c>
       <c r="V7" t="n">
-        <v>1697.183430080417</v>
+        <v>1889.43994164829</v>
       </c>
       <c r="W7" t="n">
-        <v>1523.380649085459</v>
+        <v>1617.413537234581</v>
       </c>
       <c r="X7" t="n">
-        <v>1277.988894418872</v>
+        <v>1372.021782567994</v>
       </c>
       <c r="Y7" t="n">
-        <v>1050.56922373298</v>
+        <v>1144.602111882102</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>584.3849789974212</v>
+        <v>2190.910269352854</v>
       </c>
       <c r="C8" t="n">
-        <v>155.8033047346895</v>
+        <v>1752.767796536277</v>
       </c>
       <c r="D8" t="n">
-        <v>123.9339239495381</v>
+        <v>1316.858011710722</v>
       </c>
       <c r="E8" t="n">
-        <v>57.77069415199655</v>
+        <v>883.0832668690169</v>
       </c>
       <c r="F8" t="n">
-        <v>33.94366860160834</v>
+        <v>455.2158372782247</v>
       </c>
       <c r="G8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="H8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>453.9965675465116</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K8" t="n">
-        <v>687.9235674375537</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L8" t="n">
-        <v>687.9235674375537</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="M8" t="n">
-        <v>687.9235674375537</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="N8" t="n">
-        <v>687.9235674375537</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="O8" t="n">
-        <v>687.9235674375537</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P8" t="n">
-        <v>1107.976466382457</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q8" t="n">
-        <v>1528.02936532736</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>1613.531556264254</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T8" t="n">
-        <v>1393.464329137293</v>
+        <v>2637.372669426552</v>
       </c>
       <c r="U8" t="n">
-        <v>1393.464329137293</v>
+        <v>2637.372669426552</v>
       </c>
       <c r="V8" t="n">
-        <v>1030.847379071119</v>
+        <v>2637.372669426552</v>
       </c>
       <c r="W8" t="n">
-        <v>1030.032328522557</v>
+        <v>2636.557618877989</v>
       </c>
       <c r="X8" t="n">
-        <v>610.8898651018675</v>
+        <v>2621.455559497704</v>
       </c>
       <c r="Y8" t="n">
-        <v>606.6441454419249</v>
+        <v>2617.209839837762</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>433.6589524295435</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>161.0644105192121</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>75.67932078539593</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>60.00734176206595</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>384.5656667282782</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L9" t="n">
-        <v>384.5656667282782</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M9" t="n">
-        <v>384.5656667282782</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N9" t="n">
-        <v>384.5656667282782</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O9" t="n">
-        <v>739.9048540962709</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>936.2947751752459</v>
+        <v>741.4772326516127</v>
       </c>
       <c r="C10" t="n">
-        <v>763.7330636584709</v>
+        <v>731.3355420887848</v>
       </c>
       <c r="D10" t="n">
-        <v>597.8550708599936</v>
+        <v>565.4575492903075</v>
       </c>
       <c r="E10" t="n">
-        <v>428.0970671107308</v>
+        <v>395.6995455410447</v>
       </c>
       <c r="F10" t="n">
-        <v>428.0970671107308</v>
+        <v>218.9924915028009</v>
       </c>
       <c r="G10" t="n">
-        <v>262.5057921365585</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H10" t="n">
-        <v>122.603617826933</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I10" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>120.5233537662982</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>395.2818083374338</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>688.8848573262783</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>1108.937756271182</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>1528.990655216085</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>1528.990655216085</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>1528.990655216085</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>1697.183430080417</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S10" t="n">
-        <v>1697.183430080417</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T10" t="n">
-        <v>1697.183430080417</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U10" t="n">
-        <v>1697.183430080417</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V10" t="n">
-        <v>1697.183430080417</v>
+        <v>1678.133681136788</v>
       </c>
       <c r="W10" t="n">
-        <v>1600.924819246712</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X10" t="n">
-        <v>1355.533064580125</v>
+        <v>1160.715522056492</v>
       </c>
       <c r="Y10" t="n">
-        <v>1128.113393894233</v>
+        <v>933.2958513705998</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2252.656868168566</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C11" t="n">
-        <v>1814.51439535199</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D11" t="n">
-        <v>1378.604610526434</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E11" t="n">
-        <v>944.8298656847292</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F11" t="n">
-        <v>516.962436093937</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G11" t="n">
-        <v>115.5646047172008</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H11" t="n">
-        <v>97.15276605397516</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I11" t="n">
-        <v>96.73597668111516</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J11" t="n">
-        <v>96.73597668111516</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K11" t="n">
-        <v>498.7803825855946</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L11" t="n">
-        <v>1573.840348838454</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="M11" t="n">
-        <v>2730.888184049005</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N11" t="n">
-        <v>3856.619167485452</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O11" t="n">
-        <v>4836.798834055758</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P11" t="n">
-        <v>4836.798834055758</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q11" t="n">
-        <v>4836.798834055758</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R11" t="n">
-        <v>4836.798834055758</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S11" t="n">
-        <v>4753.146960239595</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T11" t="n">
-        <v>4533.079733112633</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U11" t="n">
-        <v>4273.85743042965</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V11" t="n">
-        <v>3911.240480363476</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W11" t="n">
-        <v>3506.38502577451</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X11" t="n">
-        <v>3087.242562353821</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y11" t="n">
-        <v>2678.956438653474</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>602.907721672408</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C12" t="n">
-        <v>496.4512605090503</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D12" t="n">
-        <v>401.3609716556035</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E12" t="n">
-        <v>307.2405569825572</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F12" t="n">
-        <v>223.8567185987188</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G12" t="n">
-        <v>138.4716288649027</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H12" t="n">
-        <v>96.73597668111516</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I12" t="n">
-        <v>122.7996498415728</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J12" t="n">
-        <v>447.3579748077851</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K12" t="n">
-        <v>447.3579748077851</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L12" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M12" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N12" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O12" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P12" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q12" t="n">
-        <v>1642.802960065584</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R12" t="n">
-        <v>1759.975738159924</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S12" t="n">
-        <v>1696.520300608307</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T12" t="n">
-        <v>1566.341656938909</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U12" t="n">
-        <v>1390.005109938877</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V12" t="n">
-        <v>1190.887592000876</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W12" t="n">
-        <v>1005.56483773407</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X12" t="n">
-        <v>850.6974019729504</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y12" t="n">
-        <v>724.2116227521711</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1175.794137292997</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C13" t="n">
-        <v>1003.232425776221</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D13" t="n">
-        <v>837.3544329777442</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E13" t="n">
-        <v>667.5964292284815</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F13" t="n">
-        <v>490.8893751902377</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G13" t="n">
-        <v>325.2981002160653</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H13" t="n">
-        <v>185.3959259064398</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I13" t="n">
-        <v>96.73597668111516</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J13" t="n">
-        <v>183.315661845805</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K13" t="n">
-        <v>458.0741164169406</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L13" t="n">
-        <v>876.2839981849016</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M13" t="n">
-        <v>1335.767865365815</v>
+        <v>1341.292728955472</v>
       </c>
       <c r="N13" t="n">
-        <v>1778.026668523459</v>
+        <v>1783.551532113116</v>
       </c>
       <c r="O13" t="n">
-        <v>2197.695917749241</v>
+        <v>2203.220781338898</v>
       </c>
       <c r="P13" t="n">
-        <v>2545.202811719583</v>
+        <v>2550.72767530924</v>
       </c>
       <c r="Q13" t="n">
-        <v>2713.395586583915</v>
+        <v>2718.920450173572</v>
       </c>
       <c r="R13" t="n">
-        <v>2713.395586583915</v>
+        <v>2718.920450173572</v>
       </c>
       <c r="S13" t="n">
-        <v>2554.154217881912</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T13" t="n">
-        <v>2390.883586525066</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U13" t="n">
-        <v>2112.450585778171</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V13" t="n">
-        <v>2112.450585778171</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W13" t="n">
-        <v>1840.424181364463</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X13" t="n">
-        <v>1595.032426697876</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y13" t="n">
-        <v>1367.612756011984</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2523.375184062124</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C14" t="n">
-        <v>2085.232711245547</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D14" t="n">
-        <v>1649.322926419992</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E14" t="n">
-        <v>1215.548181578287</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F14" t="n">
-        <v>787.6807519874947</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G14" t="n">
-        <v>386.2829206107585</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H14" t="n">
-        <v>97.15276605397516</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I14" t="n">
-        <v>96.73597668111516</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J14" t="n">
-        <v>403.2461837293665</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K14" t="n">
-        <v>1237.596475687544</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L14" t="n">
-        <v>2312.656441940404</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M14" t="n">
-        <v>2312.656441940404</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N14" t="n">
-        <v>2312.656441940404</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O14" t="n">
-        <v>3292.83610851071</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P14" t="n">
-        <v>4121.145983344106</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q14" t="n">
-        <v>4667.644769302701</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R14" t="n">
-        <v>4836.798834055758</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S14" t="n">
-        <v>4836.798834055758</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T14" t="n">
-        <v>4616.731606928796</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U14" t="n">
-        <v>4544.575746323208</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V14" t="n">
-        <v>4181.958796257034</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W14" t="n">
-        <v>3777.103341668068</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X14" t="n">
-        <v>3357.960878247378</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y14" t="n">
-        <v>2949.674754547032</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>602.907721672408</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C15" t="n">
-        <v>496.4512605090503</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D15" t="n">
-        <v>401.3609716556035</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E15" t="n">
-        <v>307.2405569825572</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F15" t="n">
-        <v>223.8567185987188</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G15" t="n">
-        <v>138.4716288649027</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H15" t="n">
-        <v>96.73597668111516</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I15" t="n">
-        <v>122.7996498415728</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J15" t="n">
-        <v>447.3579748077851</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K15" t="n">
-        <v>447.3579748077851</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L15" t="n">
-        <v>447.3579748077851</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M15" t="n">
-        <v>447.3579748077851</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N15" t="n">
-        <v>447.3579748077851</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O15" t="n">
-        <v>447.3579748077851</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P15" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q15" t="n">
-        <v>1642.802960065584</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R15" t="n">
-        <v>1759.975738159924</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S15" t="n">
-        <v>1696.520300608307</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T15" t="n">
-        <v>1566.341656938909</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U15" t="n">
-        <v>1390.005109938877</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V15" t="n">
-        <v>1190.887592000876</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W15" t="n">
-        <v>1005.56483773407</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X15" t="n">
-        <v>850.6974019729504</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y15" t="n">
-        <v>724.2116227521711</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1087.134188067672</v>
+        <v>790.3368563937611</v>
       </c>
       <c r="C16" t="n">
-        <v>914.5724765508968</v>
+        <v>617.775144876986</v>
       </c>
       <c r="D16" t="n">
-        <v>748.6944837524195</v>
+        <v>451.8971520785087</v>
       </c>
       <c r="E16" t="n">
-        <v>578.9364800031568</v>
+        <v>282.139148329246</v>
       </c>
       <c r="F16" t="n">
-        <v>402.229425964913</v>
+        <v>105.4320942910022</v>
       </c>
       <c r="G16" t="n">
-        <v>236.6381509907407</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H16" t="n">
-        <v>96.73597668111516</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I16" t="n">
-        <v>96.73597668111516</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J16" t="n">
-        <v>183.315661845805</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K16" t="n">
-        <v>458.0741164169406</v>
+        <v>463.5989800066021</v>
       </c>
       <c r="L16" t="n">
-        <v>876.2839981849016</v>
+        <v>881.8088617745632</v>
       </c>
       <c r="M16" t="n">
-        <v>1335.767865365814</v>
+        <v>1341.292728955476</v>
       </c>
       <c r="N16" t="n">
-        <v>1778.026668523459</v>
+        <v>1783.551532113121</v>
       </c>
       <c r="O16" t="n">
-        <v>2197.695917749241</v>
+        <v>2203.220781338902</v>
       </c>
       <c r="P16" t="n">
-        <v>2545.202811719583</v>
+        <v>2550.727675309244</v>
       </c>
       <c r="Q16" t="n">
-        <v>2713.395586583915</v>
+        <v>2718.920450173577</v>
       </c>
       <c r="R16" t="n">
-        <v>2713.395586583915</v>
+        <v>2697.502628878949</v>
       </c>
       <c r="S16" t="n">
-        <v>2554.154217881911</v>
+        <v>2538.261260176945</v>
       </c>
       <c r="T16" t="n">
-        <v>2308.274771460367</v>
+        <v>2292.3818137554</v>
       </c>
       <c r="U16" t="n">
-        <v>2029.841770713472</v>
+        <v>2013.948813008506</v>
       </c>
       <c r="V16" t="n">
-        <v>1742.886262583902</v>
+        <v>1726.993304878936</v>
       </c>
       <c r="W16" t="n">
-        <v>1470.859858170194</v>
+        <v>1454.966900465228</v>
       </c>
       <c r="X16" t="n">
-        <v>1278.952806786659</v>
+        <v>1209.57514579864</v>
       </c>
       <c r="Y16" t="n">
-        <v>1278.952806786659</v>
+        <v>982.1554751127483</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2345.025455181387</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C17" t="n">
-        <v>1906.882982364811</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D17" t="n">
-        <v>1470.973197539255</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E17" t="n">
-        <v>1037.19845269755</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F17" t="n">
-        <v>789.5281237277514</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G17" t="n">
-        <v>388.1302923510153</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H17" t="n">
-        <v>99.00013779423158</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I17" t="n">
-        <v>98.58334842137158</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J17" t="n">
-        <v>495.6147707421875</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K17" t="n">
-        <v>1329.965062700365</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L17" t="n">
-        <v>2405.025028953225</v>
+        <v>1431.851786213077</v>
       </c>
       <c r="M17" t="n">
-        <v>2405.025028953225</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N17" t="n">
-        <v>2405.025028953225</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O17" t="n">
-        <v>3385.204695523531</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P17" t="n">
-        <v>4213.514570356927</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q17" t="n">
-        <v>4760.013356315522</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R17" t="n">
-        <v>4929.167421068579</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S17" t="n">
-        <v>4845.515547252416</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T17" t="n">
-        <v>4625.448320125454</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U17" t="n">
-        <v>4366.226017442471</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V17" t="n">
-        <v>4003.609067376297</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W17" t="n">
-        <v>3598.753612787331</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X17" t="n">
-        <v>3179.611149366642</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y17" t="n">
-        <v>2771.325025666295</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>604.7550934126643</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C18" t="n">
-        <v>498.2986322493066</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D18" t="n">
-        <v>403.2083433958599</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E18" t="n">
-        <v>309.0879287228136</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F18" t="n">
-        <v>225.7040903389752</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G18" t="n">
-        <v>140.3190006051591</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H18" t="n">
-        <v>98.58334842137158</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I18" t="n">
-        <v>124.6470215818292</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J18" t="n">
-        <v>449.2053465480415</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K18" t="n">
-        <v>1103.911393173765</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L18" t="n">
-        <v>1103.911393173765</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M18" t="n">
-        <v>1103.911393173765</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N18" t="n">
-        <v>1103.911393173765</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O18" t="n">
-        <v>1103.911393173765</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P18" t="n">
-        <v>1103.911393173765</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q18" t="n">
-        <v>1644.650331805841</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R18" t="n">
-        <v>1761.82310990018</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S18" t="n">
-        <v>1698.367672348563</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T18" t="n">
-        <v>1568.189028679165</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U18" t="n">
-        <v>1391.852481679133</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V18" t="n">
-        <v>1192.734963741133</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W18" t="n">
-        <v>1007.412209474327</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X18" t="n">
-        <v>852.5447737132067</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y18" t="n">
-        <v>726.0589944924275</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>808.0771858389835</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C19" t="n">
-        <v>635.5154743222084</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="D19" t="n">
-        <v>469.6374815237311</v>
+        <v>473.3149733731391</v>
       </c>
       <c r="E19" t="n">
-        <v>299.8794777744683</v>
+        <v>303.5569696238763</v>
       </c>
       <c r="F19" t="n">
-        <v>123.1724237362246</v>
+        <v>126.8499155856325</v>
       </c>
       <c r="G19" t="n">
-        <v>98.58334842137158</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H19" t="n">
-        <v>98.58334842137155</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I19" t="n">
-        <v>98.58334842137155</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J19" t="n">
-        <v>185.1630335860614</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K19" t="n">
-        <v>459.921488157197</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L19" t="n">
-        <v>878.1313699251581</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M19" t="n">
-        <v>1337.615237106071</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N19" t="n">
-        <v>1779.874040263716</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O19" t="n">
-        <v>2199.543289489497</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P19" t="n">
-        <v>2547.050183459839</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q19" t="n">
-        <v>2715.242958324171</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R19" t="n">
-        <v>2715.242958324171</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S19" t="n">
-        <v>2556.001589622168</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T19" t="n">
-        <v>2310.122143200623</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U19" t="n">
-        <v>2031.689142453728</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V19" t="n">
-        <v>1744.733634324158</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W19" t="n">
-        <v>1472.70722991045</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X19" t="n">
-        <v>1227.315475243862</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y19" t="n">
-        <v>999.8958045579707</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="20">
@@ -5726,22 +5726,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C20" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D20" t="n">
-        <v>1654.847790009656</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E20" t="n">
-        <v>1221.073045167951</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771593</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H20" t="n">
         <v>102.6776296436396</v>
@@ -5762,40 +5762,40 @@
         <v>2446.925785934734</v>
       </c>
       <c r="N20" t="n">
-        <v>2588.899621423627</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O20" t="n">
-        <v>3569.079287993933</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P20" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q20" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R20" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S20" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T20" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U20" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V20" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W20" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X20" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="21">
@@ -5832,19 +5832,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K21" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L21" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M21" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N21" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O21" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P21" t="n">
         <v>1107.588885023173</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>915.9519976190925</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C22" t="n">
-        <v>743.3902861023174</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D22" t="n">
-        <v>577.5122933038401</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E22" t="n">
-        <v>407.7542895545774</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F22" t="n">
-        <v>407.7542895545774</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G22" t="n">
-        <v>242.1630145804051</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H22" t="n">
         <v>102.2608402707796</v>
@@ -5914,7 +5914,7 @@
         <v>463.598980006605</v>
       </c>
       <c r="L22" t="n">
-        <v>881.808861774566</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M22" t="n">
         <v>1341.292728955479</v>
@@ -5935,25 +5935,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S22" t="n">
-        <v>2663.876401402276</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T22" t="n">
-        <v>2417.996954980732</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U22" t="n">
-        <v>2139.563954233837</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V22" t="n">
-        <v>1852.608446104267</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W22" t="n">
-        <v>1580.582041690559</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X22" t="n">
-        <v>1335.190287023971</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y22" t="n">
-        <v>1107.77061633808</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="23">
@@ -5963,7 +5963,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.900047651791</v>
       </c>
       <c r="C23" t="n">
         <v>2090.757574835212</v>
@@ -5984,55 +5984,55 @@
         <v>102.6776296436396</v>
       </c>
       <c r="I23" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J23" t="n">
-        <v>537.5155277236975</v>
+        <v>537.5155277236976</v>
       </c>
       <c r="K23" t="n">
-        <v>1371.865819681875</v>
+        <v>1371.865819681876</v>
       </c>
       <c r="L23" t="n">
-        <v>2446.925785934734</v>
+        <v>2446.925785934735</v>
       </c>
       <c r="M23" t="n">
-        <v>2446.925785934734</v>
+        <v>2446.925785934735</v>
       </c>
       <c r="N23" t="n">
-        <v>2588.899621423627</v>
+        <v>2588.899621423629</v>
       </c>
       <c r="O23" t="n">
-        <v>3569.079287993933</v>
+        <v>3569.079287993935</v>
       </c>
       <c r="P23" t="n">
-        <v>4397.38916282733</v>
+        <v>4397.389162827331</v>
       </c>
       <c r="Q23" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785926</v>
       </c>
       <c r="R23" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538982</v>
       </c>
       <c r="S23" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722819</v>
       </c>
       <c r="T23" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595858</v>
       </c>
       <c r="U23" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V23" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.483659846701</v>
       </c>
       <c r="W23" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257734</v>
       </c>
       <c r="X23" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837045</v>
       </c>
       <c r="Y23" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136699</v>
       </c>
     </row>
     <row r="24">
@@ -6057,10 +6057,10 @@
         <v>229.3815821883833</v>
       </c>
       <c r="G24" t="n">
-        <v>143.9964924545671</v>
+        <v>143.9964924545672</v>
       </c>
       <c r="H24" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="I24" t="n">
         <v>128.3245134312372</v>
@@ -6069,19 +6069,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K24" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L24" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M24" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N24" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O24" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P24" t="n">
         <v>1107.588885023173</v>
@@ -6121,40 +6121,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>811.7546776883922</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C25" t="n">
-        <v>639.1929661716172</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D25" t="n">
-        <v>473.3149733731399</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E25" t="n">
-        <v>303.5569696238771</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F25" t="n">
-        <v>126.8499155856333</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G25" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="H25" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="I25" t="n">
-        <v>102.2608402707801</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J25" t="n">
-        <v>188.8405254354699</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K25" t="n">
-        <v>463.5989800066055</v>
+        <v>463.5989800066051</v>
       </c>
       <c r="L25" t="n">
-        <v>881.8088617745666</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M25" t="n">
-        <v>1341.29272895548</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N25" t="n">
         <v>1783.551532113124</v>
@@ -6172,25 +6172,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>2559.679081471576</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T25" t="n">
-        <v>2313.799635050031</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U25" t="n">
-        <v>2035.366634303137</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V25" t="n">
-        <v>1748.411126173567</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W25" t="n">
-        <v>1476.384721759859</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X25" t="n">
-        <v>1230.992967093271</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y25" t="n">
-        <v>1003.573296407379</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="26">
@@ -6224,28 +6224,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J26" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K26" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L26" t="n">
-        <v>2011.671098481817</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M26" t="n">
-        <v>3168.718933692368</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N26" t="n">
-        <v>3168.718933692368</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O26" t="n">
-        <v>4148.898600262674</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P26" t="n">
-        <v>4977.20847509607</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q26" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R26" t="n">
         <v>5113.04201353898</v>
@@ -6300,25 +6300,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I27" t="n">
-        <v>102.2970399865835</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J27" t="n">
-        <v>426.8553649527958</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K27" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L27" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M27" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N27" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O27" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P27" t="n">
         <v>1107.588885023173</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>970.9960463903948</v>
+        <v>949.5782250957668</v>
       </c>
       <c r="C28" t="n">
-        <v>798.4343348736197</v>
+        <v>777.0165135789917</v>
       </c>
       <c r="D28" t="n">
-        <v>632.5563420751425</v>
+        <v>611.1385207805145</v>
       </c>
       <c r="E28" t="n">
-        <v>462.7983383258797</v>
+        <v>441.3805170312517</v>
       </c>
       <c r="F28" t="n">
-        <v>286.091284287636</v>
+        <v>264.6734629930079</v>
       </c>
       <c r="G28" t="n">
-        <v>120.5000093134636</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H28" t="n">
         <v>102.2608402707796</v>
@@ -6406,28 +6406,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R28" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S28" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="T28" t="n">
-        <v>2473.041003752034</v>
+        <v>2451.623182457406</v>
       </c>
       <c r="U28" t="n">
-        <v>2194.608003005139</v>
+        <v>2173.190181710511</v>
       </c>
       <c r="V28" t="n">
-        <v>1907.65249487557</v>
+        <v>1886.234673580942</v>
       </c>
       <c r="W28" t="n">
-        <v>1635.626090461861</v>
+        <v>1614.208269167233</v>
       </c>
       <c r="X28" t="n">
-        <v>1390.234335795274</v>
+        <v>1368.816514500646</v>
       </c>
       <c r="Y28" t="n">
-        <v>1162.814665109382</v>
+        <v>1141.396843814754</v>
       </c>
     </row>
     <row r="29">
@@ -6461,28 +6461,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J29" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K29" t="n">
-        <v>936.6111322289576</v>
+        <v>605.8694973157604</v>
       </c>
       <c r="L29" t="n">
-        <v>2011.671098481817</v>
+        <v>1680.92946356862</v>
       </c>
       <c r="M29" t="n">
-        <v>3168.718933692368</v>
+        <v>2837.977298779171</v>
       </c>
       <c r="N29" t="n">
-        <v>4294.449917128814</v>
+        <v>3963.708282215618</v>
       </c>
       <c r="O29" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="P29" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="Q29" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R29" t="n">
         <v>5113.04201353898</v>
@@ -6537,10 +6537,10 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I30" t="n">
-        <v>102.2970399865835</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J30" t="n">
-        <v>426.8553649527958</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K30" t="n">
         <v>1107.588885023173</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1181.319000882661</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C31" t="n">
-        <v>1008.757289365886</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D31" t="n">
-        <v>842.8792965674086</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E31" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F31" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G31" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H31" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I31" t="n">
         <v>102.2608402707796</v>
@@ -6646,25 +6646,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S31" t="n">
-        <v>2718.920450173579</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T31" t="n">
-        <v>2683.3639582443</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U31" t="n">
-        <v>2404.930957497405</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V31" t="n">
-        <v>2117.975449367836</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W31" t="n">
-        <v>1845.949044954127</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X31" t="n">
-        <v>1600.55729028754</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y31" t="n">
-        <v>1373.137619601648</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="32">
@@ -6686,13 +6686,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F32" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G32" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H32" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I32" t="n">
         <v>102.2608402707796</v>
@@ -6707,31 +6707,31 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M32" t="n">
-        <v>2446.925785934734</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N32" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O32" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P32" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q32" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R32" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S32" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T32" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U32" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V32" t="n">
         <v>4187.483659846699</v>
@@ -6774,10 +6774,10 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I33" t="n">
-        <v>102.2970399865835</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J33" t="n">
-        <v>426.8553649527958</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K33" t="n">
         <v>1107.588885023173</v>
@@ -6832,7 +6832,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>952.7568773477109</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C34" t="n">
         <v>780.1951658309357</v>
@@ -6914,7 +6914,7 @@
         <v>2528.900047651789</v>
       </c>
       <c r="C35" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D35" t="n">
         <v>1654.847790009657</v>
@@ -6923,64 +6923,64 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771602</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004241</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I35" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J35" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K35" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L35" t="n">
-        <v>2011.671098481817</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M35" t="n">
-        <v>3168.718933692368</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N35" t="n">
-        <v>4132.862346968675</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O35" t="n">
-        <v>5113.042013538981</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P35" t="n">
-        <v>5113.042013538981</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q35" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R35" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S35" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T35" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U35" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V35" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W35" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X35" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y35" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="36">
@@ -7011,31 +7011,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I36" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J36" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K36" t="n">
-        <v>782.9943603411569</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L36" t="n">
-        <v>782.9943603411569</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M36" t="n">
-        <v>782.9943603411569</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N36" t="n">
-        <v>782.9943603411569</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O36" t="n">
-        <v>782.9943603411569</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P36" t="n">
-        <v>1602.717526820355</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q36" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R36" t="n">
         <v>1765.500601749588</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1092.659051657336</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C37" t="n">
-        <v>920.0973401405612</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="D37" t="n">
-        <v>754.2193473420839</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="E37" t="n">
-        <v>584.4613435928212</v>
+        <v>469.4349624223536</v>
       </c>
       <c r="F37" t="n">
-        <v>407.7542895545774</v>
+        <v>292.7279083841098</v>
       </c>
       <c r="G37" t="n">
-        <v>242.1630145804051</v>
+        <v>127.1366334099375</v>
       </c>
       <c r="H37" t="n">
         <v>102.2608402707796</v>
@@ -7120,25 +7120,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S37" t="n">
-        <v>2718.920450173579</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T37" t="n">
-        <v>2473.041003752034</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U37" t="n">
-        <v>2194.608003005139</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V37" t="n">
-        <v>1907.65249487557</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W37" t="n">
-        <v>1635.626090461862</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X37" t="n">
-        <v>1390.234335795275</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y37" t="n">
-        <v>1284.477670376324</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="38">
@@ -7163,7 +7163,7 @@
         <v>793.2056155771594</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004233</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H38" t="n">
         <v>102.6776296436396</v>
@@ -7172,28 +7172,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J38" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K38" t="n">
-        <v>775.0235620688169</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L38" t="n">
-        <v>1850.083528321676</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M38" t="n">
-        <v>3007.131363532227</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N38" t="n">
-        <v>4132.862346968674</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O38" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P38" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q38" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R38" t="n">
         <v>5113.04201353898</v>
@@ -7211,13 +7211,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W38" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X38" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y38" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="39">
@@ -7248,31 +7248,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I39" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J39" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K39" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L39" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M39" t="n">
-        <v>531.6733301892817</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N39" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O39" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P39" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q39" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R39" t="n">
         <v>1765.500601749588</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>811.7546776883918</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C40" t="n">
-        <v>639.1929661716167</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="D40" t="n">
-        <v>639.1929661716167</v>
+        <v>473.3149733731391</v>
       </c>
       <c r="E40" t="n">
-        <v>469.434962422354</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F40" t="n">
-        <v>469.434962422354</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G40" t="n">
-        <v>303.8436874481817</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H40" t="n">
-        <v>163.9415131385562</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I40" t="n">
         <v>102.2608402707796</v>
@@ -7366,13 +7366,13 @@
         <v>2035.366634303136</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.411126173567</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W40" t="n">
         <v>1476.384721759858</v>
       </c>
       <c r="X40" t="n">
-        <v>1230.992967093271</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y40" t="n">
         <v>1003.573296407379</v>
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2527.052675911533</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C41" t="n">
-        <v>2088.910203094956</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D41" t="n">
-        <v>1653.000418269401</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E41" t="n">
-        <v>1219.225673427696</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F41" t="n">
-        <v>791.3582438369035</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G41" t="n">
-        <v>389.9604124601674</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H41" t="n">
-        <v>100.8302579033832</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I41" t="n">
-        <v>100.4134685305232</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J41" t="n">
-        <v>100.4134685305232</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K41" t="n">
-        <v>682.6549750559958</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L41" t="n">
-        <v>1757.714941308855</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M41" t="n">
-        <v>2914.762776519406</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N41" t="n">
-        <v>4040.493759955853</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O41" t="n">
-        <v>5020.673426526159</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P41" t="n">
-        <v>5020.673426526159</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q41" t="n">
-        <v>5020.673426526159</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R41" t="n">
-        <v>5020.673426526159</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S41" t="n">
-        <v>4937.021552709996</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T41" t="n">
-        <v>4807.4755408556</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U41" t="n">
-        <v>4548.253238172617</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V41" t="n">
-        <v>4185.636288106443</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W41" t="n">
-        <v>3780.780833517476</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X41" t="n">
-        <v>3361.638370096787</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y41" t="n">
-        <v>2953.35224639644</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>606.5852135218159</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C42" t="n">
-        <v>500.1287523584583</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D42" t="n">
-        <v>405.0384635050115</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E42" t="n">
-        <v>310.9180488319652</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F42" t="n">
-        <v>227.5342104481268</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G42" t="n">
-        <v>142.1491207143107</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H42" t="n">
-        <v>100.4134685305232</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I42" t="n">
-        <v>126.4771416909808</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J42" t="n">
-        <v>451.0354666571931</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K42" t="n">
-        <v>1131.76898672757</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L42" t="n">
-        <v>1131.76898672757</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M42" t="n">
-        <v>1131.76898672757</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N42" t="n">
-        <v>1131.76898672757</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O42" t="n">
-        <v>1131.76898672757</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P42" t="n">
-        <v>1131.76898672757</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q42" t="n">
-        <v>1646.480451914992</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R42" t="n">
-        <v>1763.653230009332</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S42" t="n">
-        <v>1700.197792457715</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T42" t="n">
-        <v>1570.019148788317</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U42" t="n">
-        <v>1393.682601788285</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V42" t="n">
-        <v>1194.565083850284</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W42" t="n">
-        <v>1009.242329583478</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X42" t="n">
-        <v>854.3748938223583</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y42" t="n">
-        <v>727.8891146015791</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1096.862814077705</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C43" t="n">
-        <v>924.3011025609298</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D43" t="n">
-        <v>758.4231097624524</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E43" t="n">
-        <v>671.2739210778894</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F43" t="n">
-        <v>494.5668670396457</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G43" t="n">
-        <v>328.9755920654733</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H43" t="n">
-        <v>189.0734177558479</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I43" t="n">
-        <v>100.4134685305232</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J43" t="n">
-        <v>186.9931536952131</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K43" t="n">
-        <v>461.7516082663486</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L43" t="n">
-        <v>879.9614900343097</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M43" t="n">
-        <v>1339.445357215223</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N43" t="n">
-        <v>1781.704160372867</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O43" t="n">
-        <v>2201.373409598648</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P43" t="n">
-        <v>2548.88030356899</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q43" t="n">
-        <v>2717.073078433323</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R43" t="n">
-        <v>2717.073078433323</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S43" t="n">
-        <v>2557.831709731319</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T43" t="n">
-        <v>2311.952263309774</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U43" t="n">
-        <v>2033.51926256288</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V43" t="n">
-        <v>2033.51926256288</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W43" t="n">
-        <v>1761.492858149171</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X43" t="n">
-        <v>1516.101103482584</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y43" t="n">
-        <v>1288.681432796692</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2252.656868168565</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C44" t="n">
-        <v>1814.514395351989</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D44" t="n">
-        <v>1378.604610526433</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E44" t="n">
-        <v>944.8298656847282</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F44" t="n">
-        <v>516.962436093936</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G44" t="n">
-        <v>386.2829206107589</v>
+        <v>391.8077842004236</v>
       </c>
       <c r="H44" t="n">
-        <v>97.15276605397513</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I44" t="n">
-        <v>96.73597668111513</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J44" t="n">
-        <v>96.73597668111513</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K44" t="n">
-        <v>498.7803825855928</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L44" t="n">
-        <v>1573.840348838452</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M44" t="n">
-        <v>2730.888184049003</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N44" t="n">
-        <v>3856.61916748545</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O44" t="n">
-        <v>4836.798834055757</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P44" t="n">
-        <v>4836.798834055757</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q44" t="n">
-        <v>4836.798834055757</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R44" t="n">
-        <v>4836.798834055757</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S44" t="n">
-        <v>4753.146960239594</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T44" t="n">
-        <v>4533.079733112632</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U44" t="n">
-        <v>4273.857430429649</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V44" t="n">
-        <v>3911.240480363475</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W44" t="n">
-        <v>3506.385025774509</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X44" t="n">
-        <v>3087.24256235382</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y44" t="n">
-        <v>2678.956438653473</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>602.9077216724079</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C45" t="n">
-        <v>496.4512605090502</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D45" t="n">
-        <v>401.3609716556035</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E45" t="n">
-        <v>307.2405569825572</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F45" t="n">
-        <v>223.8567185987188</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G45" t="n">
-        <v>138.4716288649027</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H45" t="n">
-        <v>96.73597668111513</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I45" t="n">
-        <v>96.73597668111513</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J45" t="n">
-        <v>96.73597668111513</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K45" t="n">
-        <v>96.73597668111513</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L45" t="n">
-        <v>96.73597668111513</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M45" t="n">
-        <v>940.252571680726</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N45" t="n">
-        <v>940.252571680726</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O45" t="n">
-        <v>940.252571680726</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P45" t="n">
-        <v>1759.975738159924</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q45" t="n">
-        <v>1759.975738159924</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R45" t="n">
-        <v>1759.975738159924</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S45" t="n">
-        <v>1696.520300608307</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T45" t="n">
-        <v>1566.341656938909</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U45" t="n">
-        <v>1390.005109938877</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V45" t="n">
-        <v>1190.887592000876</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W45" t="n">
-        <v>1005.56483773407</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X45" t="n">
-        <v>850.6974019729503</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y45" t="n">
-        <v>724.211622752171</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1175.794137292997</v>
+        <v>982.1554751127505</v>
       </c>
       <c r="C46" t="n">
-        <v>1003.232425776221</v>
+        <v>809.5937635959755</v>
       </c>
       <c r="D46" t="n">
-        <v>837.3544329777442</v>
+        <v>643.7157707974982</v>
       </c>
       <c r="E46" t="n">
-        <v>667.5964292284814</v>
+        <v>533.2191185085204</v>
       </c>
       <c r="F46" t="n">
-        <v>490.8893751902376</v>
+        <v>356.5120644702766</v>
       </c>
       <c r="G46" t="n">
-        <v>325.2981002160653</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="H46" t="n">
-        <v>185.3959259064398</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I46" t="n">
-        <v>96.73597668111513</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J46" t="n">
-        <v>183.315661845805</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K46" t="n">
-        <v>458.0741164169406</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L46" t="n">
-        <v>876.2839981849016</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M46" t="n">
-        <v>1335.767865365814</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N46" t="n">
-        <v>1778.026668523459</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O46" t="n">
-        <v>2197.695917749241</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P46" t="n">
-        <v>2545.202811719583</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q46" t="n">
-        <v>2713.395586583915</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R46" t="n">
-        <v>2691.977765289287</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S46" t="n">
-        <v>2532.736396587284</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T46" t="n">
-        <v>2286.856950165739</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U46" t="n">
-        <v>2008.423949418844</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V46" t="n">
-        <v>1721.468441289275</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W46" t="n">
-        <v>1449.442036875566</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X46" t="n">
-        <v>1449.442036875566</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y46" t="n">
-        <v>1222.022366189674</v>
+        <v>982.1554751127505</v>
       </c>
     </row>
   </sheetData>
@@ -7976,13 +7976,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
-        <v>424.2958575201043</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="L2" t="n">
-        <v>407.152590549595</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -7991,16 +7991,16 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8061,7 +8061,7 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8073,7 +8073,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>424.2958575201044</v>
@@ -8134,28 +8134,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>409.401749030468</v>
       </c>
       <c r="O4" t="n">
-        <v>371.7091627680287</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8213,13 +8213,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>236.2898988798406</v>
+        <v>630.4048323684635</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>72.80589558611109</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -8231,10 +8231,10 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>630.4048323684635</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697543</v>
@@ -8295,10 +8295,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>630.4048323684634</v>
       </c>
       <c r="L6" t="n">
-        <v>424.2958575201043</v>
+        <v>30.91440664741913</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8313,7 +8313,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>358.9284720888816</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8377,22 +8377,22 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>42.55209558322787</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>22.94960388475738</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8450,10 +8450,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>236.2898988798406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -8465,13 +8465,13 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="P8" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697543</v>
@@ -8532,7 +8532,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8544,13 +8544,13 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>358.9284720888815</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8614,19 +8614,19 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>296.5687363523682</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
         <v>169.8916917821538</v>
@@ -8687,16 +8687,16 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>406.1054605095752</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>1168.735187081365</v>
+        <v>92.22506899525706</v>
       </c>
       <c r="N11" t="n">
         <v>1137.102003471159</v>
@@ -8705,13 +8705,13 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8769,10 +8769,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L12" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8924,7 +8924,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>309.6062697457085</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
         <v>842.7780726850283</v>
@@ -8936,7 +8936,7 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831379</v>
@@ -9021,7 +9021,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -9161,16 +9161,16 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>401.0418407280969</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L17" t="n">
-        <v>1085.919157831171</v>
+        <v>60.59188538505214</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -9243,7 +9243,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9258,7 +9258,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
@@ -9410,7 +9410,7 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>143.4079146352447</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831379</v>
@@ -9480,7 +9480,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9495,7 +9495,7 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>546.2009481132077</v>
@@ -9647,7 +9647,7 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>143.4079146352447</v>
+        <v>143.407914635246</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
@@ -9717,22 +9717,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0</v>
+      </c>
+      <c r="P24" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L24" t="n">
-        <v>0</v>
-      </c>
-      <c r="M24" t="n">
-        <v>0</v>
-      </c>
-      <c r="N24" t="n">
-        <v>0</v>
-      </c>
-      <c r="O24" t="n">
-        <v>0</v>
-      </c>
-      <c r="P24" t="n">
-        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>546.2009481132077</v>
@@ -9872,7 +9872,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
         <v>842.7780726850283</v>
@@ -9881,7 +9881,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -9893,10 +9893,10 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q26" t="n">
-        <v>137.2055943867781</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9948,13 +9948,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0.03656536949883105</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9969,7 +9969,7 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q27" t="n">
         <v>546.2009481132077</v>
@@ -10109,10 +10109,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850283</v>
+        <v>69.04441372935651</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
@@ -10124,7 +10124,7 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
-        <v>826.8607034446131</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -10133,7 +10133,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10185,13 +10185,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0.03656536949883105</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10355,10 +10355,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N32" t="n">
-        <v>143.4079146352456</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831379</v>
@@ -10422,13 +10422,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0.03656536949883105</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10583,7 +10583,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
         <v>842.7780726850283</v>
@@ -10592,22 +10592,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>973.8822356326336</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10659,13 +10659,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10680,13 +10680,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>164.4273484133669</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10820,31 +10820,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10896,22 +10896,22 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>433.7499898166689</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -10920,10 +10920,10 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11057,31 +11057,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>588.1227338641138</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N41" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11139,7 +11139,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11157,7 +11157,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>519.9105708963857</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R42" t="n">
         <v>118.3563415094341</v>
@@ -11294,31 +11294,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>406.1054605095734</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N44" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11370,19 +11370,19 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>852.0369646460715</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
@@ -11391,13 +11391,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23273,7 +23273,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>268.0111327346221</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23431,10 +23431,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,16 +23464,16 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>139.5921776627326</v>
       </c>
       <c r="T13" t="n">
-        <v>81.78272691405172</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23543,13 +23543,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>185.1957776566205</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23665,10 +23665,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>160.7958207444103</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
         <v>87.77334973307141</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23716,10 +23716,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>52.94985625022187</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23741,7 +23741,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>178.3951296147833</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -23902,7 +23902,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>139.5921776627263</v>
+        <v>139.5921776627262</v>
       </c>
       <c r="H19" t="n">
         <v>138.5031525665292</v>
@@ -24136,13 +24136,13 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
         <v>87.77334973307141</v>
@@ -24175,7 +24175,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>103.1553467313935</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24376,7 +24376,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>139.5921776627254</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>138.5031525665292</v>
@@ -24412,7 +24412,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24613,10 +24613,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>3.146865729424633</v>
       </c>
       <c r="H28" t="n">
-        <v>120.446375214272</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
         <v>87.77334973307141</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>157.6489550149833</v>
@@ -24853,10 +24853,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,10 +24886,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T31" t="n">
-        <v>208.2197249473429</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25123,7 +25123,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>139.5921776627263</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25315,7 +25315,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -25327,7 +25327,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>113.876117358763</v>
       </c>
       <c r="I37" t="n">
         <v>87.77334973307141</v>
@@ -25360,7 +25360,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25378,7 +25378,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>120.4463752142714</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25552,22 +25552,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>139.5921776627262</v>
       </c>
       <c r="F40" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
-        <v>26.70948359397259</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25679,7 +25679,7 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>89.61600311983966</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -25792,7 +25792,7 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>81.78272691405263</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -25801,10 +25801,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25834,7 +25834,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25843,7 +25843,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25877,7 +25877,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>268.0111327346236</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -26020,7 +26020,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>144.1344859240861</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26029,7 +26029,7 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>58.66873794568212</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -26038,7 +26038,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -26086,7 +26086,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>538861.297066086</v>
+        <v>553657.3398932405</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>538861.297066086</v>
+        <v>556321.3999468203</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>557872.5197601574</v>
+        <v>581415.3775850211</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>557872.5197601576</v>
+        <v>581415.3775850212</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>565744.6435736559</v>
+        <v>581415.3775850212</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>581415.3775850211</v>
+        <v>581415.3775850212</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>581415.3775850211</v>
+        <v>581415.3775850212</v>
       </c>
     </row>
     <row r="11">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>581415.3775850212</v>
+        <v>581415.3775850211</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>581415.3775850211</v>
+        <v>581415.3775850212</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>573543.2537715227</v>
+        <v>581415.3775850212</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>557872.5197601574</v>
+        <v>581415.3775850212</v>
       </c>
     </row>
   </sheetData>
@@ -26317,19 +26317,19 @@
         <v>442321.538909587</v>
       </c>
       <c r="D2" t="n">
-        <v>442321.5389095871</v>
+        <v>442321.538909587</v>
       </c>
       <c r="E2" t="n">
-        <v>417057.2158266329</v>
+        <v>434657.5069133155</v>
       </c>
       <c r="F2" t="n">
-        <v>417057.215826633</v>
+        <v>434657.5069133156</v>
       </c>
       <c r="G2" t="n">
-        <v>422942.2987515128</v>
+        <v>434657.5069133157</v>
       </c>
       <c r="H2" t="n">
-        <v>434657.5069133156</v>
+        <v>434657.5069133157</v>
       </c>
       <c r="I2" t="n">
         <v>434657.5069133157</v>
@@ -26341,19 +26341,19 @@
         <v>434657.5069133157</v>
       </c>
       <c r="L2" t="n">
-        <v>434657.5069133156</v>
+        <v>434657.5069133157</v>
       </c>
       <c r="M2" t="n">
         <v>434657.5069133157</v>
       </c>
       <c r="N2" t="n">
+        <v>434657.5069133157</v>
+      </c>
+      <c r="O2" t="n">
         <v>434657.5069133156</v>
       </c>
-      <c r="O2" t="n">
-        <v>428772.4239884358</v>
-      </c>
       <c r="P2" t="n">
-        <v>417057.2158266329</v>
+        <v>434657.5069133157</v>
       </c>
     </row>
     <row r="3">
@@ -26366,37 +26366,37 @@
         <v>142191.3006597099</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>66587.76789501615</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>11527.59554998278</v>
       </c>
       <c r="E3" t="n">
-        <v>234355.0220220373</v>
+        <v>182355.1092210497</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>6329.211042852287</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>12402.75497996165</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>111014.4653449903</v>
+        <v>111014.4653449901</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>53045.85463877251</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>9392.301726622321</v>
       </c>
       <c r="M3" t="n">
-        <v>195601.1792830677</v>
+        <v>152200.1709379877</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26418,34 +26418,34 @@
         <v>212093.1194372179</v>
       </c>
       <c r="C4" t="n">
-        <v>212093.1194372179</v>
+        <v>179718.6327917066</v>
       </c>
       <c r="D4" t="n">
-        <v>212093.1194372179</v>
+        <v>173889.535266443</v>
       </c>
       <c r="E4" t="n">
-        <v>91036.59625752567</v>
+        <v>94878.44464875277</v>
       </c>
       <c r="F4" t="n">
-        <v>91036.59625752567</v>
+        <v>94878.4446487528</v>
       </c>
       <c r="G4" t="n">
-        <v>92321.21116848564</v>
+        <v>94878.4446487528</v>
       </c>
       <c r="H4" t="n">
-        <v>94878.44464875291</v>
+        <v>94878.44464875285</v>
       </c>
       <c r="I4" t="n">
+        <v>94878.44464875283</v>
+      </c>
+      <c r="J4" t="n">
         <v>94878.44464875289</v>
       </c>
-      <c r="J4" t="n">
-        <v>94878.44464875288</v>
-      </c>
       <c r="K4" t="n">
-        <v>94878.44464875288</v>
+        <v>94878.44464875289</v>
       </c>
       <c r="L4" t="n">
-        <v>94878.44464875286</v>
+        <v>94878.44464875289</v>
       </c>
       <c r="M4" t="n">
         <v>94878.44464875289</v>
@@ -26454,10 +26454,10 @@
         <v>94878.44464875289</v>
       </c>
       <c r="O4" t="n">
-        <v>93593.82973779291</v>
+        <v>94878.44464875289</v>
       </c>
       <c r="P4" t="n">
-        <v>91036.59625752563</v>
+        <v>94878.44464875289</v>
       </c>
     </row>
     <row r="5">
@@ -26470,25 +26470,25 @@
         <v>59424.78813722234</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>71956.21380800258</v>
       </c>
       <c r="D5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>73519.34227764752</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="F5" t="n">
-        <v>73519.34227764752</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="G5" t="n">
-        <v>74923.3448002424</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="H5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="I5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579253</v>
       </c>
       <c r="J5" t="n">
         <v>77718.23860579252</v>
@@ -26506,10 +26506,10 @@
         <v>77718.2386057925</v>
       </c>
       <c r="O5" t="n">
-        <v>76314.23608319763</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="P5" t="n">
-        <v>73519.34227764751</v>
+        <v>77718.2386057925</v>
       </c>
     </row>
     <row r="6">
@@ -26522,46 +26522,46 @@
         <v>28612.33067543671</v>
       </c>
       <c r="C6" t="n">
-        <v>170803.6313351468</v>
+        <v>124058.9244148617</v>
       </c>
       <c r="D6" t="n">
-        <v>170803.6313351468</v>
+        <v>182691.8835314034</v>
       </c>
       <c r="E6" t="n">
-        <v>18146.25526942243</v>
+        <v>79682.49009833785</v>
       </c>
       <c r="F6" t="n">
-        <v>252501.2772914598</v>
+        <v>262037.5993193877</v>
       </c>
       <c r="G6" t="n">
-        <v>249368.5317399325</v>
+        <v>262037.5993193877</v>
       </c>
       <c r="H6" t="n">
-        <v>249658.0686788085</v>
+        <v>262037.5993193877</v>
       </c>
       <c r="I6" t="n">
-        <v>262060.8236587703</v>
+        <v>262037.5993193877</v>
       </c>
       <c r="J6" t="n">
-        <v>151046.35831378</v>
+        <v>151023.1339743975</v>
       </c>
       <c r="K6" t="n">
-        <v>262060.8236587703</v>
+        <v>208991.7446806151</v>
       </c>
       <c r="L6" t="n">
-        <v>262060.8236587703</v>
+        <v>252645.2975927653</v>
       </c>
       <c r="M6" t="n">
-        <v>66459.64437570257</v>
+        <v>109837.4283814</v>
       </c>
       <c r="N6" t="n">
-        <v>262060.8236587702</v>
+        <v>262037.5993193877</v>
       </c>
       <c r="O6" t="n">
-        <v>258864.3581674453</v>
+        <v>262037.5993193875</v>
       </c>
       <c r="P6" t="n">
-        <v>252501.2772914597</v>
+        <v>262037.5993193877</v>
       </c>
     </row>
   </sheetData>
@@ -26790,25 +26790,25 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>630.4048323684635</v>
       </c>
       <c r="D4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>1209.199708513939</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="F4" t="n">
-        <v>1209.199708513939</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="G4" t="n">
-        <v>1232.291855267145</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="H4" t="n">
         <v>1278.260503384745</v>
       </c>
       <c r="I4" t="n">
-        <v>1278.260503384745</v>
+        <v>1278.260503384746</v>
       </c>
       <c r="J4" t="n">
         <v>1278.260503384745</v>
@@ -26826,10 +26826,10 @@
         <v>1278.260503384745</v>
       </c>
       <c r="O4" t="n">
-        <v>1255.16835663154</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="P4" t="n">
-        <v>1209.199708513939</v>
+        <v>1278.260503384745</v>
       </c>
     </row>
   </sheetData>
@@ -27012,37 +27012,37 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>206.1089748483592</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>37.11037423939342</v>
       </c>
       <c r="E4" t="n">
-        <v>784.903850993835</v>
+        <v>610.7452967768884</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>23.09214675320534</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>45.9686481176004</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201046</v>
+        <v>424.2958575201042</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>206.1089748483592</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>37.11037423939342</v>
       </c>
       <c r="M4" t="n">
-        <v>784.903850993835</v>
+        <v>610.7452967768884</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27258,22 +27258,22 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>206.1089748483592</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>37.11037423939342</v>
       </c>
       <c r="M4" t="n">
-        <v>784.903850993835</v>
+        <v>610.7452967768884</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>23.09214675320534</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>45.9686481176004</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -27382,7 +27382,7 @@
         <v>400</v>
       </c>
       <c r="D2" t="n">
-        <v>400</v>
+        <v>370.770601098108</v>
       </c>
       <c r="E2" t="n">
         <v>400</v>
@@ -27397,7 +27397,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,22 +27430,22 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>147.2153150401801</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27534,28 +27534,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27585,25 +27585,25 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>123.8046251630321</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>225.1454739790328</v>
+        <v>190.0894709310462</v>
       </c>
     </row>
     <row r="5">
@@ -27616,25 +27616,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>113.7278999628231</v>
+        <v>400</v>
       </c>
       <c r="D5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27676,13 +27676,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
+        <v>397.8955179246268</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y5" t="n">
         <v>400</v>
-      </c>
-      <c r="X5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27783,16 +27783,16 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27822,19 +27822,19 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>91.52598485537405</v>
       </c>
       <c r="T7" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>97.24138718456288</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>9.465190568306582</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>363.9353998937216</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,22 +27901,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>185.5052794208647</v>
       </c>
       <c r="U8" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
         <v>400</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y8" t="n">
         <v>400</v>
@@ -28011,7 +28011,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>160.7958207444077</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28020,16 +28020,16 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,22 +28056,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>174.0101156442034</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28278,7 +28278,7 @@
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>-3.219957382960944e-12</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -28324,10 +28324,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>-8.988773068867788e-13</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>-6.272377253606402e-14</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -28509,7 +28509,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>-2.97042799042404e-12</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -28564,7 +28564,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>-5.62755514761252e-13</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -28612,7 +28612,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>-6.272377253606391e-14</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -29038,7 +29038,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>-5.62755514761252e-13</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -30472,7 +30472,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>-2.842170943040401e-13</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -34696,13 +34696,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
-        <v>424.2958575201043</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="L2" t="n">
-        <v>407.152590549595</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -34711,16 +34711,16 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34781,7 +34781,7 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -34793,7 +34793,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>424.2958575201044</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>409.401749030468</v>
       </c>
       <c r="O4" t="n">
-        <v>371.7091627680287</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P4" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821539</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,13 +34933,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>236.2898988798406</v>
+        <v>630.4048323684635</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>72.80589558611109</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -34951,10 +34951,10 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>630.4048323684635</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697544</v>
@@ -35015,10 +35015,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>630.4048323684634</v>
       </c>
       <c r="L6" t="n">
-        <v>424.2958575201043</v>
+        <v>30.91440664741913</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35033,7 +35033,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>358.9284720888816</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>42.55209558322787</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512943</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>22.94960388475738</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,10 +35170,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>236.2898988798406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -35185,13 +35185,13 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="P8" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697544</v>
@@ -35252,7 +35252,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -35264,13 +35264,13 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>358.9284720888815</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35328,25 +35328,25 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>296.5687363523682</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
         <v>169.8916917821539</v>
@@ -35407,16 +35407,16 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>406.1054605095752</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L11" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>1168.735187081365</v>
+        <v>92.22506899525706</v>
       </c>
       <c r="N11" t="n">
         <v>1137.102003471159</v>
@@ -35425,13 +35425,13 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,10 +35489,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L12" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -35565,16 +35565,16 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
-        <v>464.1251183645588</v>
+        <v>464.1251183645513</v>
       </c>
       <c r="N13" t="n">
         <v>446.7260637956006</v>
@@ -35644,10 +35644,10 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>309.6062697457085</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L14" t="n">
         <v>1085.919157831171</v>
@@ -35656,7 +35656,7 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831377</v>
@@ -35668,7 +35668,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
-        <v>170.8626916697549</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35741,7 +35741,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -35802,13 +35802,13 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K16" t="n">
-        <v>277.5337924960966</v>
+        <v>277.5337924960936</v>
       </c>
       <c r="L16" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
         <v>464.1251183645586</v>
@@ -35881,16 +35881,16 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>401.0418407280969</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L17" t="n">
-        <v>1085.919157831171</v>
+        <v>60.59188538505214</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -35963,7 +35963,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -35978,7 +35978,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
@@ -36054,7 +36054,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O19" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P19" t="n">
         <v>351.017064616507</v>
@@ -36130,7 +36130,7 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>143.4079146352447</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831377</v>
@@ -36194,13 +36194,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -36215,7 +36215,7 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>546.2009481132077</v>
@@ -36276,16 +36276,16 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K22" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L22" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M22" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N22" t="n">
         <v>446.7260637956006</v>
@@ -36355,10 +36355,10 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>439.6511994473918</v>
+        <v>439.6511994473919</v>
       </c>
       <c r="K23" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
@@ -36367,7 +36367,7 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>143.4079146352447</v>
+        <v>143.407914635246</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831377</v>
@@ -36431,28 +36431,28 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>327.836691885063</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0</v>
+      </c>
+      <c r="P24" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L24" t="n">
-        <v>0</v>
-      </c>
-      <c r="M24" t="n">
-        <v>0</v>
-      </c>
-      <c r="N24" t="n">
-        <v>0</v>
-      </c>
-      <c r="O24" t="n">
-        <v>0</v>
-      </c>
-      <c r="P24" t="n">
-        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>546.2009481132077</v>
@@ -36519,7 +36519,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L25" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M25" t="n">
         <v>464.1251183645586</v>
@@ -36592,16 +36592,16 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -36613,10 +36613,10 @@
         <v>836.6766412458546</v>
       </c>
       <c r="Q26" t="n">
-        <v>137.2055943867781</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,13 +36668,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0.03656536949883105</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -36689,7 +36689,7 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q27" t="n">
         <v>546.2009481132077</v>
@@ -36829,10 +36829,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850283</v>
+        <v>69.04441372935651</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
@@ -36841,10 +36841,10 @@
         <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
-        <v>1137.102003471158</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
-        <v>826.8607034446131</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -36853,7 +36853,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,13 +36905,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0.03656536949883105</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -37075,10 +37075,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N32" t="n">
-        <v>143.4079146352456</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831377</v>
@@ -37142,13 +37142,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0.03656536949883105</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>973.8822356326336</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,13 +37379,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -37400,13 +37400,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>828.0031984638367</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>164.4273484133669</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,22 +37616,22 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>433.7499898166689</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -37640,10 +37640,10 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37777,31 +37777,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>588.1227338641138</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L41" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N41" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,13 +37853,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J42" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37877,7 +37877,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>519.9105708963857</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R42" t="n">
         <v>118.3563415094341</v>
@@ -37935,13 +37935,13 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K43" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L43" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M43" t="n">
         <v>464.1251183645586</v>
@@ -38014,31 +38014,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>406.1054605095734</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L44" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N44" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,19 +38090,19 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>852.0369646460715</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
@@ -38111,13 +38111,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,13 +38172,13 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
         <v>464.1251183645586</v>
@@ -38187,7 +38187,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
-        <v>423.908332551295</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P46" t="n">
         <v>351.017064616507</v>
